--- a/output_report/tong_hop/Danh_gia_cheo.xlsx
+++ b/output_report/tong_hop/Danh_gia_cheo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Phân theo thể loại" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -59,6 +59,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -377,59 +384,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>83.6</v>
+      </c>
+      <c r="C2">
+        <v>78.8</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E10" si="0">AVERAGE(B2,C2)</f>
+        <v>81.199999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>85.2</v>
+      </c>
+      <c r="C3">
+        <v>81.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>87.2</v>
+      </c>
+      <c r="C4">
+        <v>83.2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>85.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>256</v>
       </c>
-      <c r="B2">
+      <c r="B6">
         <v>91.2</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>86.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>512</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>91</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1024</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>91.2</v>
       </c>
-      <c r="C4">
+      <c r="C8">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>88.800000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2048</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>99.6</v>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>74.699999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4096</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>93.8</v>
       </c>
-      <c r="C6">
+      <c r="C10">
         <v>87.2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>90.5</v>
       </c>
     </row>
   </sheetData>
@@ -439,15 +526,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -458,59 +545,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>30.4</v>
+      </c>
+      <c r="C2">
+        <v>48.4</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E10" si="0">AVERAGE(B2,C2)</f>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>51.4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C4">
+        <v>54.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5">
+        <v>39.6</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>256</v>
       </c>
-      <c r="B2">
+      <c r="B6">
+        <v>38.4</v>
+      </c>
+      <c r="C6">
+        <v>59.2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>512</v>
+      </c>
+      <c r="B7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C7">
+        <v>58.2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1024</v>
+      </c>
+      <c r="B8">
         <v>38</v>
       </c>
-      <c r="C2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>512</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1024</v>
-      </c>
-      <c r="B4">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C8">
+        <v>59.2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2048</v>
       </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B9">
+        <v>39.6</v>
+      </c>
+      <c r="C9">
+        <v>42.2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>40.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4096</v>
       </c>
-      <c r="B6">
-        <v>38</v>
-      </c>
-      <c r="C6">
-        <v>59</v>
+      <c r="B10">
+        <v>38.4</v>
+      </c>
+      <c r="C10">
+        <v>58.6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
       </c>
     </row>
   </sheetData>
